--- a/bin/summary_table/RESULT_SUMMARY_GLCM.xlsx
+++ b/bin/summary_table/RESULT_SUMMARY_GLCM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmatt\Documents\MIALab\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmatt\Documents\MIALab\bin\summary_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F80387F-D2AA-491E-A022-A01C4A28B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388BBED-B408-4571-9553-448A106A7A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3CEA872F-7358-49E8-9EAA-A7ECE4E8452B}"/>
   </bookViews>
@@ -104,12 +104,6 @@
     <t>SumSquares</t>
   </si>
   <si>
-    <t>DICE</t>
-  </si>
-  <si>
-    <t>HDRFDST</t>
-  </si>
-  <si>
     <t>GLCM</t>
   </si>
   <si>
@@ -126,13 +120,22 @@
   </si>
   <si>
     <t>GreyMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEAN DICE </t>
+  </si>
+  <si>
+    <t>MEAN HDRFDST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +156,28 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -354,6 +369,80 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -364,8 +453,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -379,51 +468,6 @@
     <border>
       <left style="thin">
         <color auto="1"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -436,132 +480,57 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,58 +538,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,438 +938,854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236EB72D-A019-4EC3-8BA8-BEF5E71859F2}">
-  <dimension ref="D4:O28"/>
+  <dimension ref="D4:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D5" s="28" t="s">
+    <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="15"/>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9" t="s">
+      <c r="G6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="4:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="29"/>
-      <c r="E6" s="24" t="s">
+      <c r="K6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="M6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="N6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D7" s="18" t="s">
+    </row>
+    <row r="7" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
+      <c r="E7" s="26">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J7" s="29">
+        <v>13.02711262</v>
+      </c>
+      <c r="K7" s="27">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L7" s="27">
+        <v>16.36478091</v>
+      </c>
+      <c r="M7" s="27">
+        <v>3.86999819</v>
+      </c>
+      <c r="N7" s="30">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D9" s="12" t="s">
+      <c r="E8" s="23">
+        <v>0.51696048999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.50636219000000005</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.76055808000000003</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.80650959</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.70931613000000004</v>
+      </c>
+      <c r="J8" s="9">
+        <v>13.230092089999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>13.46717583</v>
+      </c>
+      <c r="L8" s="7">
+        <v>16.39270084</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2.4873158399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
+      <c r="E9" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J9" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K9" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L9" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N9" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="12" t="s">
+      <c r="E10" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J10" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K10" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L10" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="12" t="s">
+      <c r="E11" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J11" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K11" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L11" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N11" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
+      <c r="E12" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J12" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K12" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L12" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
+      <c r="E13" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J13" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K13" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L13" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D15" s="12" t="s">
+      <c r="E14" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J14" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K14" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L14" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="12" t="s">
+      <c r="E15" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J15" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K15" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L15" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N15" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D17" s="12" t="s">
+      <c r="E16" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J16" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K16" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L16" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="12" t="s">
+      <c r="E17" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J17" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K17" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L17" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N17" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="12" t="s">
+      <c r="E18" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J18" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K18" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L18" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N18" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
+      <c r="E19" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J19" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K19" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L19" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N19" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="12" t="s">
+      <c r="E20" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J20" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K20" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L20" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N20" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="12" t="s">
+      <c r="E21" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J21" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K21" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L21" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M21" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N21" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D23" s="12" t="s">
+      <c r="E22" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J22" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K22" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L22" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N22" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D24" s="12" t="s">
+      <c r="E23" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J23" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K23" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L23" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D25" s="12" t="s">
+      <c r="E24" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J24" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K24" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L24" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N24" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="12" t="s">
+      <c r="E25" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J25" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K25" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L25" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N25" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="4:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="12" t="s">
+      <c r="E26" s="23">
+        <v>0.51859701000000002</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.50745450000000003</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.76094289999999998</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.80655281999999995</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.70933900999999999</v>
+      </c>
+      <c r="J26" s="9">
+        <v>13.02711262</v>
+      </c>
+      <c r="K26" s="7">
+        <v>13.428216770000001</v>
+      </c>
+      <c r="L26" s="7">
+        <v>16.36478091</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3.86999819</v>
+      </c>
+      <c r="N26" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="4:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="13" t="s">
+      <c r="E27" s="23">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J27" s="9">
+        <v>12.98209452</v>
+      </c>
+      <c r="K27" s="7">
+        <v>13.37140617</v>
+      </c>
+      <c r="L27" s="7">
+        <v>15.95047411</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N27" s="10">
+        <v>2.4701585599999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
+      <c r="E28" s="24">
+        <v>0.52048989999999995</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.50698544999999995</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.76177563999999998</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.80632185000000001</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.70935243000000003</v>
+      </c>
+      <c r="J28" s="13">
+        <v>12.98209452</v>
+      </c>
+      <c r="K28" s="11">
+        <v>13.37140617</v>
+      </c>
+      <c r="L28" s="11">
+        <v>15.95047411</v>
+      </c>
+      <c r="M28" s="11">
+        <v>3.8577745399999999</v>
+      </c>
+      <c r="N28" s="14">
+        <v>2.4701585599999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J5:N5"/>
     <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/summary_table/RESULT_SUMMARY_GLCM.xlsx
+++ b/bin/summary_table/RESULT_SUMMARY_GLCM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmatt\Documents\MIALab\bin\summary_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388BBED-B408-4571-9553-448A106A7A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83391AA5-08B4-4DEC-90D2-AAE3BE15AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3CEA872F-7358-49E8-9EAA-A7ECE4E8452B}"/>
+    <workbookView xWindow="-28515" yWindow="4935" windowWidth="28800" windowHeight="15345" xr2:uid="{3CEA872F-7358-49E8-9EAA-A7ECE4E8452B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Baseline</t>
   </si>
@@ -122,10 +122,16 @@
     <t>GreyMatter</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN DICE </t>
-  </si>
-  <si>
-    <t>MEAN HDRFDST</t>
+    <t xml:space="preserve">DICE </t>
+  </si>
+  <si>
+    <t>HDRFDST</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -133,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,26 +150,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -201,8 +221,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -219,8 +239,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -237,9 +257,160 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -249,14 +420,44 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -264,8 +465,56 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -279,304 +528,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,48 +646,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -938,855 +961,1600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236EB72D-A019-4EC3-8BA8-BEF5E71859F2}">
-  <dimension ref="D4:N28"/>
+  <dimension ref="D4:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D5" s="16" t="s">
+    <row r="4" spans="4:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="3" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="4"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="37"/>
     </row>
-    <row r="6" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="15"/>
-      <c r="E6" s="17" t="s">
+    <row r="6" spans="4:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="D6" s="41"/>
+      <c r="E6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="R6" s="31"/>
+      <c r="S6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="T6" s="31"/>
+      <c r="U6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="V6" s="31"/>
+      <c r="W6" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="X6" s="34"/>
     </row>
-    <row r="7" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D7" s="25" t="s">
+    <row r="7" spans="4:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="42"/>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E8" s="9">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F8" s="10">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G8" s="11">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G7" s="27">
+      <c r="H8" s="10">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I8" s="11">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H7" s="27">
+      <c r="J8" s="10">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K8" s="11">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I7" s="28">
+      <c r="L8" s="10">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M8" s="11">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J7" s="29">
+      <c r="N8" s="12">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O8" s="13">
         <v>13.02711262</v>
       </c>
-      <c r="K7" s="27">
+      <c r="P8" s="10">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q8" s="11">
         <v>13.428216770000001</v>
       </c>
-      <c r="L7" s="27">
+      <c r="R8" s="10">
+        <v>1.0406701</v>
+      </c>
+      <c r="S8" s="11">
         <v>16.36478091</v>
       </c>
-      <c r="M7" s="27">
+      <c r="T8" s="10">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U8" s="11">
         <v>3.86999819</v>
       </c>
-      <c r="N7" s="30">
+      <c r="V8" s="10">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W8" s="11">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X8" s="14">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="8" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+    <row r="9" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E9" s="15">
         <v>0.51696048999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="16">
+        <v>3.4682060000000001E-2</v>
+      </c>
+      <c r="G9" s="17">
         <v>0.50636219000000005</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H9" s="16">
+        <v>2.9248349999999999E-2</v>
+      </c>
+      <c r="I9" s="17">
         <v>0.76055808000000003</v>
       </c>
-      <c r="H8" s="7">
+      <c r="J9" s="16">
+        <v>2.794812E-2</v>
+      </c>
+      <c r="K9" s="17">
         <v>0.80650959</v>
       </c>
-      <c r="I8" s="8">
+      <c r="L9" s="16">
+        <v>2.0555219999999999E-2</v>
+      </c>
+      <c r="M9" s="17">
         <v>0.70931613000000004</v>
       </c>
-      <c r="J8" s="9">
+      <c r="N9" s="18">
+        <v>8.5145299999999993E-3</v>
+      </c>
+      <c r="O9" s="19">
         <v>13.230092089999999</v>
       </c>
-      <c r="K8" s="7">
+      <c r="P9" s="16">
+        <v>1.40166445</v>
+      </c>
+      <c r="Q9" s="17">
         <v>13.46717583</v>
       </c>
-      <c r="L8" s="7">
+      <c r="R9" s="16">
+        <v>1.0654460100000001</v>
+      </c>
+      <c r="S9" s="17">
         <v>16.39270084</v>
       </c>
-      <c r="M8" s="7">
+      <c r="T9" s="16">
+        <v>1.4419982899999999</v>
+      </c>
+      <c r="U9" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N8" s="10">
+      <c r="V9" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W9" s="17">
         <v>2.4873158399999999</v>
       </c>
+      <c r="X9" s="20">
+        <v>0.64285292999999999</v>
+      </c>
     </row>
-    <row r="9" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+    <row r="10" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E10" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G10" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H10" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I10" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J10" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K10" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I9" s="8">
+      <c r="L10" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M10" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J9" s="9">
+      <c r="N10" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O10" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K9" s="7">
+      <c r="P10" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q10" s="17">
         <v>13.37140617</v>
       </c>
-      <c r="L9" s="7">
+      <c r="R10" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S10" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M9" s="7">
+      <c r="T10" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U10" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N9" s="10">
+      <c r="V10" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W10" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X10" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="10" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+    <row r="11" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E11" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G11" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H11" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I11" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H10" s="7">
+      <c r="J11" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K11" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I10" s="8">
+      <c r="L11" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M11" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J10" s="9">
+      <c r="N11" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O11" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K10" s="7">
+      <c r="P11" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q11" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L10" s="7">
+      <c r="R11" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S11" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M10" s="7">
+      <c r="T11" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U11" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N10" s="10">
+      <c r="V11" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W11" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X11" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="11" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+    <row r="12" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E12" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G12" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H12" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I12" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H11" s="7">
+      <c r="J12" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K12" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="L12" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M12" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J11" s="9">
+      <c r="N12" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O12" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K11" s="7">
+      <c r="P12" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q12" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L11" s="7">
+      <c r="R12" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S12" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M11" s="7">
+      <c r="T12" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U12" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N11" s="10">
+      <c r="V12" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W12" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X12" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="12" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+    <row r="13" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E13" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G13" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H13" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I13" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H12" s="7">
+      <c r="J13" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K13" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I12" s="8">
+      <c r="L13" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M13" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J12" s="9">
+      <c r="N13" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O13" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K12" s="7">
+      <c r="P13" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q13" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L12" s="7">
+      <c r="R13" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S13" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M12" s="7">
+      <c r="T13" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U13" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N12" s="10">
+      <c r="V13" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W13" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X13" s="20">
+        <v>0.63112336999999996</v>
+      </c>
+      <c r="AB13" s="17"/>
     </row>
-    <row r="13" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
+    <row r="14" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E14" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G14" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H14" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I14" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H13" s="7">
+      <c r="J14" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K14" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I13" s="8">
+      <c r="L14" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M14" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J13" s="9">
+      <c r="N14" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O14" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K13" s="7">
+      <c r="P14" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q14" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L13" s="7">
+      <c r="R14" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S14" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M13" s="7">
+      <c r="T14" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U14" s="26">
         <v>3.86999819</v>
       </c>
-      <c r="N13" s="10">
+      <c r="V14" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W14" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X14" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="14" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+    <row r="15" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E15" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G15" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H15" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I15" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H14" s="7">
+      <c r="J15" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K15" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I14" s="8">
+      <c r="L15" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M15" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J14" s="9">
+      <c r="N15" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O15" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K14" s="7">
+      <c r="P15" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q15" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L14" s="7">
+      <c r="R15" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S15" s="17">
         <v>15.95047411</v>
       </c>
-      <c r="M14" s="7">
+      <c r="T15" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U15" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N14" s="10">
+      <c r="V15" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W15" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X15" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="15" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+    <row r="16" spans="4:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E16" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G16" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H16" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I16" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H15" s="7">
+      <c r="J16" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K16" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I15" s="8">
+      <c r="L16" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M16" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J15" s="9">
+      <c r="N16" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O16" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K15" s="7">
+      <c r="P16" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q16" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L15" s="7">
+      <c r="R16" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S16" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M15" s="7">
+      <c r="T16" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U16" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N15" s="10">
+      <c r="V16" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W16" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X16" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="16" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+    <row r="17" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E17" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G17" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H17" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I17" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H16" s="7">
+      <c r="J17" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K17" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I16" s="8">
+      <c r="L17" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M17" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J16" s="9">
+      <c r="N17" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O17" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K16" s="7">
+      <c r="P17" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q17" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L16" s="7">
+      <c r="R17" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S17" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M16" s="7">
+      <c r="T17" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U17" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N16" s="10">
+      <c r="V17" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W17" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X17" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="17" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E18" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G18" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H18" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I18" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H17" s="7">
+      <c r="J18" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K18" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I17" s="8">
+      <c r="L18" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M18" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J17" s="9">
+      <c r="N18" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O18" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K17" s="7">
+      <c r="P18" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q18" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L17" s="7">
+      <c r="R18" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S18" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M17" s="7">
+      <c r="T18" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U18" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N17" s="10">
+      <c r="V18" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W18" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X18" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="18" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+    <row r="19" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E19" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G19" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H19" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I19" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="J19" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K19" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I18" s="8">
+      <c r="L19" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M19" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J18" s="9">
+      <c r="N19" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O19" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K18" s="7">
+      <c r="P19" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q19" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L18" s="7">
+      <c r="R19" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S19" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M18" s="7">
+      <c r="T19" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U19" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N18" s="10">
+      <c r="V19" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W19" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X19" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="19" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+    <row r="20" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E20" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G20" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H20" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I20" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H19" s="7">
+      <c r="J20" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K20" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I19" s="8">
+      <c r="L20" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M20" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J19" s="9">
+      <c r="N20" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O20" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K19" s="7">
+      <c r="P20" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q20" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L19" s="7">
+      <c r="R20" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S20" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M19" s="7">
+      <c r="T20" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U20" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N19" s="10">
+      <c r="V20" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W20" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X20" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="20" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
+    <row r="21" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E21" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G21" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H21" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I21" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H20" s="7">
+      <c r="J21" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K21" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I20" s="8">
+      <c r="L21" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M21" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J20" s="9">
+      <c r="N21" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O21" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K20" s="7">
+      <c r="P21" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q21" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L20" s="7">
+      <c r="R21" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S21" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M20" s="7">
+      <c r="T21" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U21" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N20" s="10">
+      <c r="V21" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W21" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X21" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="21" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
+    <row r="22" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E22" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G22" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H22" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I22" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H21" s="7">
+      <c r="J22" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K22" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I21" s="8">
+      <c r="L22" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M22" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J21" s="9">
+      <c r="N22" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O22" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K21" s="7">
+      <c r="P22" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q22" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L21" s="7">
+      <c r="R22" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S22" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M21" s="7">
+      <c r="T22" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U22" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N21" s="10">
+      <c r="V22" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W22" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X22" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="22" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
+    <row r="23" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E23" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G23" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H23" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I23" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H22" s="7">
+      <c r="J23" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K23" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I22" s="8">
+      <c r="L23" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M23" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J22" s="9">
+      <c r="N23" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O23" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K22" s="7">
+      <c r="P23" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q23" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L22" s="7">
+      <c r="R23" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S23" s="17">
         <v>15.95047411</v>
       </c>
-      <c r="M22" s="7">
+      <c r="T23" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U23" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N22" s="10">
+      <c r="V23" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W23" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X23" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="23" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
+    <row r="24" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E24" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G24" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H24" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I24" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H23" s="7">
+      <c r="J24" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K24" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I23" s="8">
+      <c r="L24" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M24" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J23" s="9">
+      <c r="N24" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O24" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K23" s="7">
+      <c r="P24" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q24" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L23" s="7">
+      <c r="R24" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S24" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M23" s="7">
+      <c r="T24" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U24" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N23" s="10">
+      <c r="V24" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W24" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X24" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="24" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
+    <row r="25" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E25" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G25" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H25" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I25" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H24" s="7">
+      <c r="J25" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K25" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I24" s="8">
+      <c r="L25" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M25" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J24" s="9">
+      <c r="N25" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O25" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K24" s="7">
+      <c r="P25" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q25" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L24" s="7">
+      <c r="R25" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S25" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M24" s="7">
+      <c r="T25" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U25" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N24" s="10">
+      <c r="V25" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W25" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X25" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="25" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
+    <row r="26" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E26" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G26" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H26" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I26" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H25" s="7">
+      <c r="J26" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K26" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I25" s="8">
+      <c r="L26" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M26" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J25" s="9">
+      <c r="N26" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O26" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K25" s="7">
+      <c r="P26" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q26" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L25" s="7">
+      <c r="R26" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S26" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M25" s="7">
+      <c r="T26" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U26" s="26">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N25" s="10">
+      <c r="V26" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W26" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X26" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="26" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
+    <row r="27" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E27" s="15">
         <v>0.51859701000000002</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="16">
+        <v>3.570127E-2</v>
+      </c>
+      <c r="G27" s="17">
         <v>0.50745450000000003</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H27" s="16">
+        <v>2.9760760000000001E-2</v>
+      </c>
+      <c r="I27" s="17">
         <v>0.76094289999999998</v>
       </c>
-      <c r="H26" s="7">
+      <c r="J27" s="16">
+        <v>2.726818E-2</v>
+      </c>
+      <c r="K27" s="17">
         <v>0.80655281999999995</v>
       </c>
-      <c r="I26" s="8">
+      <c r="L27" s="16">
+        <v>2.0593759999999999E-2</v>
+      </c>
+      <c r="M27" s="17">
         <v>0.70933900999999999</v>
       </c>
-      <c r="J26" s="9">
+      <c r="N27" s="18">
+        <v>8.5276399999999995E-3</v>
+      </c>
+      <c r="O27" s="19">
         <v>13.02711262</v>
       </c>
-      <c r="K26" s="7">
+      <c r="P27" s="16">
+        <v>1.4471823399999999</v>
+      </c>
+      <c r="Q27" s="17">
         <v>13.428216770000001</v>
       </c>
-      <c r="L26" s="7">
+      <c r="R27" s="16">
+        <v>1.0406701</v>
+      </c>
+      <c r="S27" s="17">
         <v>16.36478091</v>
       </c>
-      <c r="M26" s="7">
+      <c r="T27" s="16">
+        <v>1.8957705300000001</v>
+      </c>
+      <c r="U27" s="17">
         <v>3.86999819</v>
       </c>
-      <c r="N26" s="10">
+      <c r="V27" s="16">
+        <v>0.35087611000000002</v>
+      </c>
+      <c r="W27" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X27" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="27" spans="4:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
+    <row r="28" spans="4:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E28" s="15">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="16">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G28" s="17">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H28" s="16">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I28" s="17">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H27" s="7">
+      <c r="J28" s="16">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K28" s="17">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I27" s="8">
+      <c r="L28" s="16">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M28" s="17">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J27" s="9">
+      <c r="N28" s="18">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O28" s="27">
         <v>12.98209452</v>
       </c>
-      <c r="K27" s="7">
+      <c r="P28" s="16">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q28" s="26">
         <v>13.37140617</v>
       </c>
-      <c r="L27" s="7">
+      <c r="R28" s="16">
+        <v>1.00274475</v>
+      </c>
+      <c r="S28" s="26">
         <v>15.95047411</v>
       </c>
-      <c r="M27" s="7">
+      <c r="T28" s="16">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U28" s="17">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N27" s="10">
+      <c r="V28" s="16">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W28" s="17">
         <v>2.4701585599999998</v>
       </c>
+      <c r="X28" s="20">
+        <v>0.63112336999999996</v>
+      </c>
     </row>
-    <row r="28" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="6" t="s">
+    <row r="29" spans="4:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E29" s="21">
         <v>0.52048989999999995</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="22">
+        <v>3.5667150000000002E-2</v>
+      </c>
+      <c r="G29" s="23">
         <v>0.50698544999999995</v>
       </c>
-      <c r="G28" s="11">
+      <c r="H29" s="22">
+        <v>2.9503580000000001E-2</v>
+      </c>
+      <c r="I29" s="23">
         <v>0.76177563999999998</v>
       </c>
-      <c r="H28" s="11">
+      <c r="J29" s="22">
+        <v>2.6792799999999999E-2</v>
+      </c>
+      <c r="K29" s="23">
         <v>0.80632185000000001</v>
       </c>
-      <c r="I28" s="12">
+      <c r="L29" s="22">
+        <v>2.0614090000000002E-2</v>
+      </c>
+      <c r="M29" s="23">
         <v>0.70935243000000003</v>
       </c>
-      <c r="J28" s="13">
+      <c r="N29" s="24">
+        <v>8.5318600000000005E-3</v>
+      </c>
+      <c r="O29" s="28">
         <v>12.98209452</v>
       </c>
-      <c r="K28" s="11">
+      <c r="P29" s="22">
+        <v>1.4018637199999999</v>
+      </c>
+      <c r="Q29" s="29">
         <v>13.37140617</v>
       </c>
-      <c r="L28" s="11">
+      <c r="R29" s="22">
+        <v>1.00274475</v>
+      </c>
+      <c r="S29" s="29">
         <v>15.95047411</v>
       </c>
-      <c r="M28" s="11">
+      <c r="T29" s="22">
+        <v>1.8391236099999999</v>
+      </c>
+      <c r="U29" s="23">
         <v>3.8577745399999999</v>
       </c>
-      <c r="N28" s="14">
+      <c r="V29" s="22">
+        <v>0.34289303999999998</v>
+      </c>
+      <c r="W29" s="23">
         <v>2.4701585599999998</v>
+      </c>
+      <c r="X29" s="25">
+        <v>0.63112336999999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="13">
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
